--- a/templates/templates OLD/Report Default_USA.xlsx
+++ b/templates/templates OLD/Report Default_USA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1954E411-56E7-4102-BDFA-3DB0B2000D02}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81FA0B9-8D24-4B20-B8E9-833A38A447F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="73845" yWindow="-510" windowWidth="21390" windowHeight="17550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="14" r:id="rId1"/>
@@ -66,7 +66,14 @@
     <definedName name="PV_εmax_imposée">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'En-tête'!$A$1:$H$51</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -187,9 +194,6 @@
     <t>Rev:</t>
   </si>
   <si>
-    <t xml:space="preserve">Type of Test:  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Specimens delivered by the customer. </t>
   </si>
   <si>
@@ -287,6 +291,9 @@
   </si>
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>Testing type:</t>
   </si>
 </sst>
 </file>
@@ -294,8 +301,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="0.00_)"/>
+    <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.00_)"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -563,7 +570,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
@@ -633,7 +640,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1259,7 +1266,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G11"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1279,14 +1286,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
       <c r="G1" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,7 +1328,7 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="47"/>
@@ -1334,7 +1341,7 @@
         <v>37</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="47"/>
     </row>
@@ -1343,7 +1350,7 @@
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="47"/>
@@ -1361,7 +1368,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="47"/>
@@ -1392,13 +1399,13 @@
     </row>
     <row r="13" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="51" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>65</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
@@ -1439,7 +1446,7 @@
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
@@ -1458,7 +1465,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
@@ -1479,17 +1486,17 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="29" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
@@ -1539,7 +1546,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -1549,7 +1556,7 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -1559,7 +1566,7 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -1578,7 +1585,7 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>IF(K32=0,M32,L32)</f>
@@ -1589,17 +1596,17 @@
       <c r="F32" s="16"/>
       <c r="K32" s="44"/>
       <c r="L32" s="45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M32" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N32" s="44"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -1609,7 +1616,7 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1619,7 +1626,7 @@
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="13"/>
@@ -1631,7 +1638,7 @@
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
@@ -1647,7 +1654,7 @@
     <row r="39" spans="1:13" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="49"/>
       <c r="D39" s="49"/>
@@ -1670,10 +1677,10 @@
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -1686,7 +1693,7 @@
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13" t="s">
@@ -1704,7 +1711,7 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="14" t="str">
         <f>CONCATENATE("Closed loop servo controlled hydraulic system of ",K43," kN capacity.")</f>
@@ -1715,7 +1722,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="15"/>
       <c r="K43" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L43" s="41"/>
       <c r="M43" s="41"/>
@@ -1723,7 +1730,7 @@
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="13"/>
@@ -1737,7 +1744,7 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="13" t="str">
         <f>IF(AND(K45=0,L45=0),"NA",CONCATENATE(IF(K45&gt;0,"Furnace",""),IF(L45&gt;0,"Coil","")))</f>
@@ -1766,13 +1773,13 @@
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G47" s="5"/>
       <c r="K47" s="41"/>
@@ -1801,7 +1808,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G49" s="5"/>
     </row>
@@ -2005,21 +2012,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005385EB61B379B64FA3FA00EFD5F48211" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b97f2a5ef9ff731d6c6b6a53c29c79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" xmlns:ns3="b1338d7f-541f-4bc8-84bc-74292fa164fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdf937eed7c5c26b74985f5c8ee9608f" ns2:_="" ns3:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -2184,32 +2176,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8703DD9A-9B27-437E-AB91-283DE2CA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2226,4 +2208,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>